--- a/DataBases/PromptDataBases.xlsx
+++ b/DataBases/PromptDataBases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego\Documents\GitHub\HackMTY\DataBases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B623CDD1-B2A7-4A27-A67A-D1F3F4B48A0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67419510-BFAB-4937-9CFE-209589A43D5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{076B7C21-16FB-46AA-9BA2-DBBA36892EE4}"/>
   </bookViews>
@@ -53,50 +53,55 @@
     <t>Division</t>
   </si>
   <si>
-    <t>Prompt for the student john that likes superheroes and likes pizza, beginner level
-Tony Stark and Steve Roger are hosting pizza party. Tony brought 3 pizzas and Steve Rogers bought 4 pizzas. They are waiting for Peter Parkers , who bought 5 pizzas. Their [answer 1]] pizzas already arrived to the party, but they weren’t counting on Batman showing up very hungry. He says they need at least 4 pizzas per person, if there are 6 people in the party. Batman says there should be [answer 2] pizzas. The Flash thought he needed to buy all of the pizzas Batman wanted by himself and bought [answer 2] pizzas. They were super full with the [answer 3] pizzas</t>
+    <t>Prompt for the student john that likes superheroes and likes pizza, beginner level, in threeparts
+Part 1:
+Tony Stark and Steve Roger are hosting pizza party. Tony brought 3 pizzas and Steve Rogers bought 4 pizzas. They are waiting for Peter Parkers , who bought 5 pizzas. Their [answer 1] pizzas already arrived to the party, but they weren’t counting on Batman showing up very hungry.
+Part 2:
+He says they need at least 4 pizzas per person, if there are 6 people in the party. Batman says there should be [answer 2] pizzas. 
+Part3:The Flash thought he needed to buy all the pizzas Batman wanted by himself and bought [answer 3] pizzas. They were super full with the [answer 3] pizzas</t>
   </si>
   <si>
     <t xml:space="preserve">Prompt for student Bruce who likes swimming, advanced level
-Bruce is going swimming in the Cancun Beach. His coach told him he could go on vacation only if he did 10 100m laps for freestyle, 5 100m laps for backstroke and 3 100m laps for butterfly. He counted them up and couldn’t believe it, he needed to swim [answer 1] meters. The coach also told him he needed to swim one 100m lap each time he ate a sweet. Bruce ended up eating 6 sweets that day, [answer 2] meters in total. After that, Bruce figured out vacations were going to be tough if he wanted to become as good as Michael Phelps. </t>
-  </si>
-  <si>
-    <t>Prompt for student Mary who likes dancing, intermediate level
-The dance teacher Janet is handing out Ballet tutus for the next competition. She started out with 60 tutus and is giving one to each student. 27 students already got their tutus and she’s worried only [answer 1] tutus are left. When she got to the studio, only 12 tutus were left, meaning [answer 2] students had already gotten their tutus. Janet told her not to worry about the tutus since she bought 5 extra. This meant she’d have [answer 3 tutus left by the end of the day. Mary was relieved and happy with her new tutu.</t>
-  </si>
-  <si>
-    <t>James is an advanced level student who liked video games and mario 
-Mario and Luigi were on an adventure in the Mushroom Kingdom, collecting coins to save Princess Peach. They started with 200 coins. Along the way, they encountered a group of Goombas and lost 30 coins in the battle. Now, they have [answer 1] coins left. Later, they had to pay 20 coins to cross a bridge guarded by Bowser’s minions, leaving them with [answer 2] coins. Mario found a hidden block with 50 coins, bringing their total to [answer 3] coins. However, they were ambushed by a group of Koopa Troopas and lost 40 coins, leaving them with [answer 4] coins in the end. Mario and Luigi learned that being careful on their adventures is crucial to keep their coins safe!</t>
+Part1:Bruce is going swimming in the Cancun. His coach told him he could go on vacation only if he did 10 100m laps for freestyle, 5 100m laps for backstroke and 3 100m laps for butterfly. He counted them up, he needed to swim [answer 1] meters.
+Part2:The coach also told him he needed to swim one 100m lap each time he ate a sweet. Bruce ended up eating 6 sweets that day, [answer 2] meters in total. After that, Bruce figured out vacations were going to be tough </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prompt for student Mary who likes dancing, intermediate level subtracting                                                      Part 1:The dance teacher Janet is handing out Ballet tutus for the next competition. She started out with 60 tutus and is giving one to each student. 27 students already got their tutus and she’s worried only [answer 1] tutus are left.
+Part 2:  When she got to the studio, only 12 tutus were left, meaning [answer 2] students had already gotten their tutus. Janet told her not to worry about the tutus since she bought 5 extra. This meant she’d have [answer 3] tutus left by the end of the day. </t>
+  </si>
+  <si>
+    <t>James is an advanced level student who liked video games and mario  
+Part 1: Mario and Luigi were on an adventure in the Mushroom Kingdom, collecting coins to save Princess Peach. They started with 200 coins. Along the way, they encountered a group of Goombas and lost 30 coins in the battle. Now, they have [answer 1] coins left.
+Part 2: Later, they had to pay 20 coins to cross a bridge guarded by Bowser’s minions, leaving them with [answer 2] coins. Mario found a hidden block with 50 coins, bringing their total to [answer 3] coins. 
+Part 3:However, they were ambushed by a group of Koopa Troopas and lost 40 coins, leaving them with [answer 4] coins in the end. Mario and Luigi learned that being careful on their adventures is crucial to keep their coins safe!</t>
   </si>
   <si>
     <t>The student is named juan and he is a beginner multiplication student, he is interested in hockey
 Juan’s Hockey Practice
-Juan loves playing hockey and is excited for his team’s practice. Coach Garcia told the team that they need to practice their shots on goal. There are 5 players on Juan’s team, and each player needs to take 4 shots on goal. Juan counted the total number of shots and realized they needed to take [answer 1] shots in total. After practice, Coach Garcia was impressed with their hard work and told them they could play a fun scrimmage game. Each player scored 3 goals during the game, so the team scored [answer 2] goals in total. Juan was thrilled with how well they played and couldn’t wait for their next practice!</t>
+Part 1:Juan loves playing hockey and is excited for his team’s practice. Coach Garcia told the team that they need to practice their shots on goal. There are 5 players on Juan’s team, and each player needs to take 4 shots on goal. 
+Part 2:Juan counted the total number of shots and realized they needed to take [answer 1] shots in total. After practice, Coach Garcia was impressed with their hard work and told them they could play a fun scrimmage game. 
+Part 3:Each player scored 3 goals during the game, so the team scored [answer 2] goals in total. Juan was thrilled with how well they played and couldn’t wait for their next practice!</t>
   </si>
   <si>
     <t>The student is an intermediate level multiplication student that is interested in gardening and is named sarah
 Sarah’s Garden Adventure
-Sarah loves spending time in her garden, planting flowers and vegetables. This season, she decided to plant tulips, tomatoes, and sunflowers. She planted 6 rows of tulips, with 8 tulips in each row. Sarah counted the total number of tulips and realized she had planted [answer 1] tulips in her garden. Next, she planted 5 rows of tomato plants, with 7 plants in each row. She counted the total number of tomato plants and found she had planted [answer 2] tomato plants.
-Sarah also decided to plant sunflowers. She planted 4 rows of sunflowers, with 9 sunflowers in each row. She counted the total number of sunflowers and found she had planted [answer 3] sunflowers. In total, Sarah planted [answer 4] flowers and vegetables in her garden. Sarah was excited to see her garden grow and couldn’t wait to harvest her beautiful tulips, delicious tomatoes, and towering sunflowers!
-An advanced multiplication story for Hans, featuring Jake and the Never Land Pirates:
-Jake and the Never Land Pirates’ Treasure Hunt
-Jake, Izzy, Cubby, and Skully were on a grand treasure hunt in Never Land. They discovered a map that led to a hidden treasure guarded by Captain Hook. To reach the treasure, they had to solve a series of challenges.
-First, they found 7 treasure chests, each containing 12 gold coins. Jake counted the total number of gold coins and realized they had found [answer 1] gold coins. Next, they encountered a group of 5 pirate ships, each carrying 8 barrels of treasure. Izzy calculated the total number of barrels and found they had [answer 2] barrels of treasure.
-As they continued their adventure, they found 4 caves, each filled with 15 sparkling gems. Cubby counted the total number of gems and discovered they had [answer 3] gems. Finally, they reached the final challenge where they had to defeat 3 groups of Captain Hook’s pirates, with each group having 6 pirates. Skully figured out the total number of pirates they had to defeat, which was [answer 4] pirates.
-Jake and his friends successfully completed all the challenges and claimed the hidden treasure, learning that teamwork and clever thinking are the keys to success!</t>
+Part1:Sarah loves spending time in her garden, planting flowers and vegetables. This season, she decided to plant tulips, tomatoes, and sunflowers. She planted 6 rows of tulips, with 8 tulips in each row.
+Part2:Sarah counted the total number of tulips and realized she had planted [answer 1] tulips in her garden . Next, she planted 5 rows of tomato plants, with 7 plants in each row. She counted the total number of tomato plants and found she had planted [answer 2] tomatos.
+Part3:Sarah also decided to plant sunflowers. She planted 4 rows of sunflowers, with 9 sunflowers in each row. She counted the total number of sunflowers and found she had planted [answer 3] sunflowers.
+Part4: In total, Sarah planted [answer 4] flowers and vegetables in her garden. Sarah was excited to see her garden grow and couldn’t wait to harvest her beautiful tulips, delicious tomatoes, and towering sunflowers!</t>
+  </si>
+  <si>
+    <t>Intermediate Level: Division Story for Max who likes Dinosaurs
+Max’s Dinosaur Expedition
+Part1: Max is on a dinosaur expedition with his friends. They discovered 36 dinosaur bones and want to divide them equally among 6 excavation sites.
+Part2: Max calculates how many bones will go to each site. He divides the bones and finds out that each site will get [answer 1] bones. Max and his friends are excited to study the dinosaur bones at each site! 🦕🦴</t>
   </si>
   <si>
     <t xml:space="preserve">Advanced Level: Division Story for Lily who likes Space Adventures
 Lily’s Space Mission
-Lily is an astronaut on a space mission with her crew. They have 72 space snacks to share equally among 8 crew members. Lily needs to figure out how many snacks each crew member will get. She divides the snacks and finds out that each crew member will get [answer 1] snacks. Later, they discover 48 more space snacks and need to divide them equally among the same 8 crew members. Lily calculates that each crew member will get [answer 2] more snacks. In total, each crew member will have [answer 3] snacks. Lily and her crew are ready for their space adventure with plenty of snacks
-Story about subtraction, addition and division
-Prompt for the student Alex who likes basketball, intermediate level
-The basketball team is preparing for their next big game, and they need to check their equipment inventory. Coach Jordan has 20 basketballs, and he gives 4 basketballs to the team captain, Alex, ending up with [answer 1] basketballs. Assistant Coach Sam has 16 basketballs, and he gives 4 basketballs to the star player, Jamie, ending up with [answer 2] basketballs. Just as they were about to start practice, they realized they need to distribute the remaining basketballs equally among 4 players (Coach Jordan, Alex, Assistant Coach Sam, and Jamie). Each basketball player got [answer 3] basketballs. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intermediate Level: Division Story for Max who likes Dinosaurs
-Max’s Dinosaur Expedition
-Max is on a dinosaur expedition with his friends. They discovered 36 dinosaur bones and want to divide them equally among 6 excavation sites. Max calculates how many bones will go to each site. He divides the bones and finds out that each site will get [answer 1] bones. Max and his friends are excited to study the dinosaur bones at each site! 🦕🦴
+Part1:Lily is an astronaut on a space mission with her crew. They have 72 space snacks to share equally among 8 crew members. Lily needs to figure out how many snacks each crew member will get.
+Part2: She divides the snacks and finds out that each crew member will get [answer 1] snacks. Later, they discover 48 more space snacks and need to divide them equally among the same 8 crew members. Lily calculates that each crew member will get [answer 2] more snacks.
+Part3: In total, each crew member will have [answer 3] snacks. Lily and her crew are ready for their space adventure with plenty of snacks
 </t>
   </si>
 </sst>
@@ -455,10 +460,14 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="50.85546875" customWidth="1"/>
+    <col min="3" max="3" width="44.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -494,7 +503,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="315" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -505,7 +514,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="165.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -516,15 +525,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="330" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/DataBases/PromptDataBases.xlsx
+++ b/DataBases/PromptDataBases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego\Documents\GitHub\HackMTY\DataBases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67419510-BFAB-4937-9CFE-209589A43D5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{147F5482-53C0-4C41-96FE-FB600D9C0959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{076B7C21-16FB-46AA-9BA2-DBBA36892EE4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Topic</t>
   </si>
@@ -103,6 +103,114 @@
 Part2: She divides the snacks and finds out that each crew member will get [answer 1] snacks. Later, they discover 48 more space snacks and need to divide them equally among the same 8 crew members. Lily calculates that each crew member will get [answer 2] more snacks.
 Part3: In total, each crew member will have [answer 3] snacks. Lily and her crew are ready for their space adventure with plenty of snacks
 </t>
+  </si>
+  <si>
+    <t>Part1: Bob was a young student who absolutely loved cars. One sunny afternoon, he decided to visit a car show in his town. As he walked through the rows of shiny vehicles, he couldn’t help but imagine himself driving each one.
+Part2: At the first booth, Bob saw a red sports car and a blue convertible. The red sports car had 5 wheels (including the spare), and the blue convertible had 4 wheels. Bob quickly calculated that there were [8, 9, 10] wheels in total.
+Part3: Next, Bob moved to a booth with classic cars. There were 3 vintage cars, each with 2 headlights. Bob realized that there were [5, 6, 7] headlights altogether.
+Part4: As Bob continued exploring, he found a booth with toy cars. He decided to buy some for his collection. He bought 2 red toy cars and 3 blue toy cars. Bob knew he now had [4, 5, 6] toy cars in total.
+Part 5:Finally, Bob saw a booth with miniature car models. Each model had 4 doors. Bob counted 3 models and figured out that there were [10, 11, 12] doors in total.Bob had a fantastic time at the car show, and by solving these addition problems
+, he felt even more confident in his math skills!</t>
+  </si>
+  <si>
+    <t>Jenny was a young girl who adored firefighters and had a wonderful collection of dolls. 
+Part1: One day, she visited the local fire station to learn more about the brave firefighters and their work.At the fire station, Jenny saw a big red fire truck with 10 firefighters getting ready for a drill. Suddenly, 3 firefighters had to leave for an emergency call. 
+Part2:Jenny counted the remaining firefighters and realized there were now [6, 7, 8] firefighters left.Next, Jenny noticed a shelf with 12 shiny firefighter helmets. She saw that 5 helmets were taken by the firefighters who left for the emergency. 
+Part3: Jenny figured out that there were [6, 7, 8] helmets still on the shelf.After the visit, Jenny went home to play with her dolls. She had 15 dolls in her collection. She decided to give 4 dolls to her friend as a gift. 
+Part4:Jenny counted her remaining dolls and saw that she had [10, 11, 12] dolls left. Later, Jenny’s brother borrowed 2 of her 8 firefighter action figures to play with. Jenny checked and saw that she had [5, 6, 7] action figures left.
+Part5: Jenny had a great day learning about firefighters and playing with her dolls. By solving these subtraction problems, she felt even more confident in her math skills!</t>
+  </si>
+  <si>
+    <t>Part 1:
+Ash Ketchum is preparing for a big Pokémon battle. He starts with 50 Poké Balls. He gives 18 Poké Balls to his friend Misty, who needs them for her Water Pokémon. Ash is worried because he only has [42, 32, 40, 45] Poké Balls left.
+Part 2:
+When Ash arrives at the Pokémon Center, he realizes he has lost some Poké Balls along the way. He counts and finds out he only has 22 Poké Balls left. This means he lost [11, 10, 15, 14] Poké Balls during his journey.
+Part 3:
+Nurse Joy sees Ash’s concern and gives him 7 extra Poké Balls. Now, Ash has [29, 28,30 ] Poké Balls in total. Ash feels relieved and ready for his big battle with Pikachu by his side.</t>
+  </si>
+  <si>
+    <t>*Part 1:*
+Maria is baking cookies for her friends. She starts with 40 cookies. She gives 15 cookies to her neighbor. Maria is worried because she only has [25,35,15] cookies left. 
+*Part 2:*
+When Maria checks the oven, she realizes she burned some cookies. She counts and finds out she only has 20 cookies left. This means she burned [5,6,7,8] cookies. 
+*Part 3:*
+Maria's mom helps her bake 10 more cookies. Now, Maria has *[30, 25,28, 32]* cookies in total. Maria feels happy and ready to share her delicious cookies with her friends.</t>
+  </si>
+  <si>
+    <t>Part1 Mario was a young boy who was passionate about football and baseball. One weekend, he decided to visit the sports complex in his town to watch some games and practice his skills.
+Part 2:At the football field, Mario saw 4 teams getting ready to play. Each team had 11 players. Mario quickly calculated that there were [40, 44, 48] players in total on the field.Next, Mario moved to the baseball diamond. 
+Part3:He noticed that there were 3 games happening simultaneously, and each game had 9 players on each team. Mario figured out that there were [24, 27, 30] players playing baseball.After watching the games, Mario joined a football practice session. 
+Part4:The coach divided the players into 5 groups, with each group having 6 players. Mario realized that there were [25, 30, 35] players practicing in total.
+Part5:Later, Mario went to the sports shop to buy some baseballs. He bought 4 packs of baseballs, and each pack contained 3 baseballs. Mario knew he now had [10, 12, 14] baseballs in total.
+Part6:Mario had an exciting day at the sports complex, and by solving these multiplication problems, he felt even more confident in his math skills!</t>
+  </si>
+  <si>
+    <t>*Emma’s Cookie Baking*
+*Part 1:*
+Emma is baking cookies for a school event. She bakes 4 trays of cookies, with 8 cookies on each tray. Emma counted the total number of cookies and realized she baked [30,24,32,28] cookies in total.
+*Part 2:*
+Emma decides to bake more cookies. She bakes 3 more trays, with 8 cookies on each tray. She counts the new total and realizes she has baked *[24, 56, 35, 46]* cookies in total.
+*Part 3:*
+Emma's mom asks her to bake cookies for a family gathering. Emma bakes 5 more trays, with 8 cookies on each tray. Now, Emma has baked [96,56,74,85] cookies in total. Emma is proud of her baking skills!</t>
+  </si>
+  <si>
+    <t>Part 1:
+Maria is practicing her dance routine. She practices 3 different dance moves, and she repeats each move 7 times. Maria counted the total number of repetitions and realized she practiced [18, 21, 24] times in total.
+Part 2:
+Maria decides to add more moves to her routine. She practices 2 more dance moves, repeating each move 7 times. She counts the new total and realizes she has practiced [28, 35, 42] times in total.
+Part 3:
+Maria’s dance teacher asks her to practice 4 more dance moves, repeating each move 7 times. Now, Maria has practiced [49, 56, 63] times in total. Maria feels confident and ready for her performance!</t>
+  </si>
+  <si>
+    <t>Sarah’s Pet Care
+Part 1:
+Sarah takes care of her pets every day. She has 4 pets, and she spends 5 minutes feeding each pet. Sarah counted the total time she spends feeding her pets and realized she spends [15, 20, 25] minutes in total.
+Part 2:
+Sarah decides to spend more time with her pets. She spends 5 minutes playing with each pet. She counts the new total and realizes she spends [30, 35, 40] minutes in total with her pets.
+Part 3:
+Sarah’s neighbor asks her to take care of 3 more pets, and she spends 5 minutes feeding each new pet. Now, Sarah spends [50, 55, 60] minutes in total taking care of all the pets. Sarah enjoys every moment with her furry friends!</t>
+  </si>
+  <si>
+    <t>Part 1:
+Sophia is packing gift bags for a party. She has 30 toys to divide equally among 5 gift bags. Sophia counts the toys and realizes each bag will have [5, 6, 7] toys.
+Part 2:
+Sophia decides to organize the toys by type. She finds that she has 3 types of toys, with an equal number of each type. She counts and realizes she has [8, 9, 10] toys of each type.
+Part 3:
+Sophia’s friend gives her 10 more toys, and she needs to divide them equally among the same 5 gift bags. Now, each bag will have [7, 8, 9] toys. Sophia is excited to see the gift bags filled with toys! 🎁🧸</t>
+  </si>
+  <si>
+    <t>Part 1:
+Ava is preparing goodie bags for a birthday party. She has 60 candies to divide equally among 10 goodie bags. Ava counts the candies and realizes each bag will have [5, 6, 7] candies.
+Part 2:
+Ava decides to organize the candies by flavor. She finds that she has 5 flavors, with an equal number of candies for each flavor. She counts and realizes she has [10, 12, 15] candies of each flavor.
+Part 3:
+Ava’s friend gives her 20 more candies, and she needs to divide them equally among the same 10 goodie bags. Now, each bag will have [7, 8, 9] candies. Ava is thrilled to see the goodie bags filled with candies! 🍬🎉</t>
+  </si>
+  <si>
+    <t>Part 1:
+Ethan is distributing books in the library. He has 56 books to place equally on 7 shelves. Ethan counts the books and realizes each shelf will have [7, 8, 9] books.
+Part 2:
+Ethan decides to organize the books by genre. He finds that he has 4 genres, with an equal number of books for each genre. He counts and realizes he has [12, 14, 16] books of each genre.
+Part 3:
+Ethan’s librarian gives him 28 more books, and he needs to place them equally on the same 7 shelves. Now, each shelf will have [10, 12, 14] books. Ethan is happy to see the shelves filled with books! 📚📖</t>
+  </si>
+  <si>
+    <t>Sure, here’s a story about Alfredo, who loves pizza and robots, for learning addition:
+Part 1:
+Alfredo is having a fun day with his robots. He has 3 robots, and each robot can make 4 pizzas. Alfredo counts the pizzas and realizes they can make [10, 11, 12] pizzas in total.
+Part 2:
+Alfredo decides to invite his friends over. He makes 2 more robots, and each new robot can also make 4 pizzas. Alfredo counts the new total and realizes they can now make [16, 18, 20] pizzas in total.
+Part 3:
+Alfredo’s neighbor lends him 3 more robots, and each of these robots can make 4 pizzas. Now, Alfredo’s robots can make [24, 27, 30] pizzas in total. Alfredo is excited to see all the pizzas they can make and share with his friends! 🍕🤖</t>
+  </si>
+  <si>
+    <t>Sure, here’s a story about Elizabeth, who loves cooking and medicine, for learning addition:
+Part 1:
+Elizabeth is preparing a healthy meal in her kitchen. She has 3 different vegetables, and she adds 5 pieces of each vegetable to her salad. Elizabeth counts the total pieces of vegetables and realizes she has [12, 15, 18] pieces in total.
+Part 2:
+Elizabeth decides to add some fruits to her meal. She adds 2 types of fruits, with 5 pieces of each fruit. She counts the new total and realizes she now has [20, 25, 30] pieces of fruits and vegetables in her meal.
+Part 3:
+Elizabeth’s friend gives her 3 more types of vegetables, and she adds 5 pieces of each new vegetable. Now, Elizabeth has [30, 35, 40] pieces of fruits and vegetables in her meal. Elizabeth is happy to see her colorful and nutritious meal ready to enjoy! 🥗🍎</t>
   </si>
 </sst>
 </file>
@@ -460,13 +568,16 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="50.85546875" customWidth="1"/>
     <col min="3" max="3" width="44.7109375" customWidth="1"/>
+    <col min="4" max="4" width="45.85546875" customWidth="1"/>
+    <col min="5" max="5" width="55.7109375" customWidth="1"/>
+    <col min="6" max="6" width="44.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -502,8 +613,17 @@
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" ht="315" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -512,6 +632,15 @@
       </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="165.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -524,6 +653,18 @@
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="D4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="330" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -534,6 +675,15 @@
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/DataBases/PromptDataBases.xlsx
+++ b/DataBases/PromptDataBases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego\Documents\GitHub\HackMTY\DataBases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{147F5482-53C0-4C41-96FE-FB600D9C0959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24838CFB-3DB2-4722-B9F6-C8970F85AFE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{076B7C21-16FB-46AA-9BA2-DBBA36892EE4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Topic</t>
   </si>
@@ -127,14 +127,6 @@
 When Ash arrives at the Pokémon Center, he realizes he has lost some Poké Balls along the way. He counts and finds out he only has 22 Poké Balls left. This means he lost [11, 10, 15, 14] Poké Balls during his journey.
 Part 3:
 Nurse Joy sees Ash’s concern and gives him 7 extra Poké Balls. Now, Ash has [29, 28,30 ] Poké Balls in total. Ash feels relieved and ready for his big battle with Pikachu by his side.</t>
-  </si>
-  <si>
-    <t>*Part 1:*
-Maria is baking cookies for her friends. She starts with 40 cookies. She gives 15 cookies to her neighbor. Maria is worried because she only has [25,35,15] cookies left. 
-*Part 2:*
-When Maria checks the oven, she realizes she burned some cookies. She counts and finds out she only has 20 cookies left. This means she burned [5,6,7,8] cookies. 
-*Part 3:*
-Maria's mom helps her bake 10 more cookies. Now, Maria has *[30, 25,28, 32]* cookies in total. Maria feels happy and ready to share her delicious cookies with her friends.</t>
   </si>
   <si>
     <t>Part1 Mario was a young boy who was passionate about football and baseball. One weekend, he decided to visit the sports complex in his town to watch some games and practice his skills.
@@ -155,62 +147,145 @@
   </si>
   <si>
     <t>Part 1:
+Sophia is packing gift bags for a party. She has 30 toys to divide equally among 5 gift bags. Sophia counts the toys and realizes each bag will have [5, 6, 7] toys.
+Part 2:
+Sophia decides to organize the toys by type. She finds that she has 3 types of toys, with an equal number of each type. She counts and realizes she has [8, 9, 10] toys of each type.
+Part 3:
+Sophia’s friend gives her 10 more toys, and she needs to divide them equally among the same 5 gift bags. Now, each bag will have [7, 8, 9] toys. Sophia is excited to see the gift bags filled with toys! 🎁🧸</t>
+  </si>
+  <si>
+    <t>Sure, here’s a story about Alfredo, who loves pizza and robots, for learning addition:
+Part 1:
+Alfredo is having a fun day with his robots. He has 3 robots, and each robot can make 4 pizzas. Alfredo counts the pizzas and realizes they can make [10, 11, 12] pizzas in total.
+Part 2:
+Alfredo decides to invite his friends over. He makes 2 more robots, and each new robot can also make 4 pizzas. Alfredo counts the new total and realizes they can now make [16, 18, 20] pizzas in total.
+Part 3:
+Alfredo’s neighbor lends him 3 more robots, and each of these robots can make 4 pizzas. Now, Alfredo’s robots can make [24, 27, 30] pizzas in total. Alfredo is excited to see all the pizzas they can make and share with his friends! 🍕🤖</t>
+  </si>
+  <si>
+    <t>Sure, here’s the story about Elizabeth, who loves cooking and medicine, divided into 6 parts:
+Part 1:
+Elizabeth is preparing a healthy meal in her kitchen. She has 3 different vegetables, and she adds 5 pieces of each vegetable to her salad. Elizabeth counts the total pieces of vegetables and realizes she has [12, 15, 18] pieces in total.
+Part 2:
+Elizabeth decides to add some fruits to her meal. She adds 2 types of fruits, with 5 pieces of each fruit. She counts the new total and realizes she now has [20, 25, 30] pieces of fruits and vegetables in her meal.
+Part 3:
+Elizabeth’s friend gives her 3 more types of vegetables, and she adds 5 pieces of each new vegetable. Now, Elizabeth has [30, 35, 40] pieces of fruits and vegetables in her meal.
+Part 4:
+Elizabeth decides to make a smoothie. She uses 4 different fruits, adding 3 pieces of each fruit. She counts the pieces and realizes she has [10, 12, 15] pieces of fruit for her smoothie.
+Part 5:
+Elizabeth’s neighbor gives her 2 more types of fruits, and she adds 3 pieces of each new fruit to her smoothie. Now, Elizabeth has [15, 18, 21] pieces of fruit in her smoothie.
+Part 6:
+Elizabeth combines all the fruits and vegetables for a grand meal. She counts everything and realizes she has [45, 50, 55] pieces in total. Elizabeth is happy to see her colorful and nutritious meal ready to enjoy! 🥗🍎</t>
+  </si>
+  <si>
+    <t>Sure, here’s the expanded story in 5 parts:
+Part 1:
+Ava is preparing goodie bags for a birthday party. She has 60 candies to divide equally among 10 goodie bags. Ava counts the candies and realizes each bag will have [5, 6, 7] candies.
+Part 2:
+Ava decides to organize the candies by flavor. She finds that she has 5 flavors, with an equal number of candies for each flavor. She counts and realizes she has [10, 12, 15] candies of each flavor.
+Part 3:
+Ava’s friend gives her 20 more candies. Ava decides to add these candies to the goodie bags. She now has 80 candies in total. She needs to divide them equally among the same 10 goodie bags. Ava counts again and realizes each bag will now have [7, 8, 9] candies.
+Part 4:
+Ava wants to make the goodie bags even more special. She adds 2 small toys to each bag. She has 10 bags, so she needs 20 toys in total. Ava counts the toys and realizes she has [15, 20, 25] toys left after filling the bags.
+Part 5:
+Ava’s neighbor gives her 10 more candies. She decides to add these to the goodie bags as well. Now, each bag will have [8, 9, 10] candies. Ava is thrilled to see the goodie bags filled with candies and toys, ready for the party! 🍬🎉</t>
+  </si>
+  <si>
+    <t>Sure, here’s the expanded story in 7 parts:
+Part 1:
+Ethan is distributing books in the library. He has 56 books to place equally on 7 shelves. Ethan counts the books and realizes each shelf will have [7, 8, 9] books.
+Part 2:
+Ethan decides to organize the books by genre. He finds that he has 4 genres, with an equal number of books for each genre. He counts and realizes he has [12, 14, 16] books of each genre.
+Part 3:
+Ethan’s librarian gives him 28 more books. Ethan now has a total of 84 books. He needs to place them equally on the same 7 shelves. Ethan counts again and realizes each shelf will now have [10, 12, 14] books.
+Part 4:
+Ethan decides to further organize the books by author. He finds that he has 3 authors, with an equal number of books for each author. He counts and realizes he has [25, 28, 30] books by each author.
+Part 5:
+Ethan’s friend donates 21 more books to the library. Ethan now has 105 books in total. He needs to place them equally on the same 7 shelves. Ethan counts and realizes each shelf will now have [14, 15, 16] books.
+Part 6:
+Ethan decides to create a special section for new arrivals. He takes 14 books from each shelf for this section. He counts and realizes he has [70, 84, 98] books left on the shelves.
+Part 7:
+Ethan’s librarian gives him 14 more books for the new arrivals section. He adds these to the special section, making it complete. Ethan is happy to see the shelves and the new arrivals section filled with books! 📚📖</t>
+  </si>
+  <si>
+    <t>Sure, here’s the expanded story in 8 parts:
+Part 1:
+Maria is baking cookies for her friends. She starts with 40 cookies. She gives 15 cookies to her neighbor. Maria is worried because she only has [25, 35, 15] cookies left.
+Part 2:
+Maria decides to check the oven. She realizes she burned some cookies. She counts and finds out she only has 20 cookies left. This means she burned [5, 6, 7, 8] cookies.
+Part 3:
+Maria’s mom helps her bake 10 more cookies. Now, Maria has [30, 25, 28, 32] cookies in total. Maria feels happy and ready to share her delicious cookies with her friends.
+Part 4:
+Maria’s friends arrive, and she decides to give each friend 2 cookies. She has 5 friends. Maria counts and realizes she has given away [8, 10, 12] cookies.
+Part 5:
+After giving cookies to her friends, Maria counts the remaining cookies. She realizes she has [18, 20, 22] cookies left.
+Part 6:
+Maria’s brother comes home and asks for some cookies. She gives him 4 cookies. Maria now has [14, 16, 18] cookies left.
+Part 7:
+Maria decides to save some cookies for later. She puts 6 cookies in a container. Maria counts and realizes she has [8, 10, 12] cookies left to enjoy now.
+Part 8:
+Maria and her friends enjoy the remaining cookies together. They are happy and satisfied with the delicious treats. Maria feels proud of her baking skills and the fun time she had with her friends! 🍪😊</t>
+  </si>
+  <si>
+    <t>Sure, here’s the story expanded into 5 parts:
+Part 1:
 Maria is practicing her dance routine. She practices 3 different dance moves, and she repeats each move 7 times. Maria counted the total number of repetitions and realized she practiced [18, 21, 24] times in total.
 Part 2:
 Maria decides to add more moves to her routine. She practices 2 more dance moves, repeating each move 7 times. She counts the new total and realizes she has practiced [28, 35, 42] times in total.
 Part 3:
-Maria’s dance teacher asks her to practice 4 more dance moves, repeating each move 7 times. Now, Maria has practiced [49, 56, 63] times in total. Maria feels confident and ready for her performance!</t>
-  </si>
-  <si>
-    <t>Sarah’s Pet Care
+Maria’s dance teacher asks her to practice 4 more dance moves, repeating each move 7 times. Now, Maria has practiced [49, 56, 63] times in total.
+Part 4:
+Maria decides to review her entire routine. She practices all 9 dance moves, repeating each move 7 times. She counts the total repetitions and realizes she has practiced [60, 63, 72] times in total.
+Part 5:
+Maria feels confident and ready for her performance. She practices her routine one last time, making sure each move is perfect. Maria is excited to showcase her hard work and dedication on stage!</t>
+  </si>
+  <si>
+    <t>Sure, here’s a story about Eduardo, who loves corn and cars, for learning division:
+Part 1:
+Eduardo is excited to visit his grandfather’s farm, where they grow lots of corn. His grandfather gives him 24 ears of corn to share with his friends. Eduardo has 6 friends. He divides the corn equally and realizes each friend will get [3, 4, 5] ears of corn.
+Part 2:
+Eduardo decides to organize a small corn-eating contest. He has 30 ears of corn and wants to divide them equally among 5 contestants. Eduardo counts and realizes each contestant will get [5, 6, 7] ears of corn.
+Part 3:
+After the contest, Eduardo wants to take some corn home. He has 18 ears of corn and wants to divide them equally into 3 bags. Eduardo counts and realizes each bag will have [5, 6, 7] ears of corn.
+Part 4:
+Eduardo loves cars and decides to visit a car show. He sees 36 cars and wants to take pictures of them. He plans to take pictures of 6 cars at a time. Eduardo counts and realizes he will need to take [5, 6, 7] sets of pictures.
+Part 5:
+At the car show, Eduardo finds a booth selling toy cars. He buys 42 toy cars and wants to divide them equally among 7 of his friends. Eduardo counts and realizes each friend will get [5, 6, 7] toy cars.
+Part 6:
+Eduardo decides to organize his toy car collection. He has 48 toy cars and wants to display them equally on 8 shelves. Eduardo counts and realizes each shelf will have [5, 6, 7] toy cars. Eduardo is happy to see his collection neatly organized!</t>
+  </si>
+  <si>
+    <t>Sure, here is story of Sarah who likes dogs of multiplication
 Part 1:
 Sarah takes care of her pets every day. She has 4 pets, and she spends 5 minutes feeding each pet. Sarah counted the total time she spends feeding her pets and realized she spends [15, 20, 25] minutes in total.
 Part 2:
 Sarah decides to spend more time with her pets. She spends 5 minutes playing with each pet. She counts the new total and realizes she spends [30, 35, 40] minutes in total with her pets.
 Part 3:
-Sarah’s neighbor asks her to take care of 3 more pets, and she spends 5 minutes feeding each new pet. Now, Sarah spends [50, 55, 60] minutes in total taking care of all the pets. Sarah enjoys every moment with her furry friends!</t>
-  </si>
-  <si>
-    <t>Part 1:
-Sophia is packing gift bags for a party. She has 30 toys to divide equally among 5 gift bags. Sophia counts the toys and realizes each bag will have [5, 6, 7] toys.
-Part 2:
-Sophia decides to organize the toys by type. She finds that she has 3 types of toys, with an equal number of each type. She counts and realizes she has [8, 9, 10] toys of each type.
-Part 3:
-Sophia’s friend gives her 10 more toys, and she needs to divide them equally among the same 5 gift bags. Now, each bag will have [7, 8, 9] toys. Sophia is excited to see the gift bags filled with toys! 🎁🧸</t>
-  </si>
-  <si>
-    <t>Part 1:
-Ava is preparing goodie bags for a birthday party. She has 60 candies to divide equally among 10 goodie bags. Ava counts the candies and realizes each bag will have [5, 6, 7] candies.
-Part 2:
-Ava decides to organize the candies by flavor. She finds that she has 5 flavors, with an equal number of candies for each flavor. She counts and realizes she has [10, 12, 15] candies of each flavor.
-Part 3:
-Ava’s friend gives her 20 more candies, and she needs to divide them equally among the same 10 goodie bags. Now, each bag will have [7, 8, 9] candies. Ava is thrilled to see the goodie bags filled with candies! 🍬🎉</t>
-  </si>
-  <si>
-    <t>Part 1:
-Ethan is distributing books in the library. He has 56 books to place equally on 7 shelves. Ethan counts the books and realizes each shelf will have [7, 8, 9] books.
-Part 2:
-Ethan decides to organize the books by genre. He finds that he has 4 genres, with an equal number of books for each genre. He counts and realizes he has [12, 14, 16] books of each genre.
-Part 3:
-Ethan’s librarian gives him 28 more books, and he needs to place them equally on the same 7 shelves. Now, each shelf will have [10, 12, 14] books. Ethan is happy to see the shelves filled with books! 📚📖</t>
-  </si>
-  <si>
-    <t>Sure, here’s a story about Alfredo, who loves pizza and robots, for learning addition:
-Part 1:
-Alfredo is having a fun day with his robots. He has 3 robots, and each robot can make 4 pizzas. Alfredo counts the pizzas and realizes they can make [10, 11, 12] pizzas in total.
-Part 2:
-Alfredo decides to invite his friends over. He makes 2 more robots, and each new robot can also make 4 pizzas. Alfredo counts the new total and realizes they can now make [16, 18, 20] pizzas in total.
-Part 3:
-Alfredo’s neighbor lends him 3 more robots, and each of these robots can make 4 pizzas. Now, Alfredo’s robots can make [24, 27, 30] pizzas in total. Alfredo is excited to see all the pizzas they can make and share with his friends! 🍕🤖</t>
-  </si>
-  <si>
-    <t>Sure, here’s a story about Elizabeth, who loves cooking and medicine, for learning addition:
-Part 1:
-Elizabeth is preparing a healthy meal in her kitchen. She has 3 different vegetables, and she adds 5 pieces of each vegetable to her salad. Elizabeth counts the total pieces of vegetables and realizes she has [12, 15, 18] pieces in total.
-Part 2:
-Elizabeth decides to add some fruits to her meal. She adds 2 types of fruits, with 5 pieces of each fruit. She counts the new total and realizes she now has [20, 25, 30] pieces of fruits and vegetables in her meal.
-Part 3:
-Elizabeth’s friend gives her 3 more types of vegetables, and she adds 5 pieces of each new vegetable. Now, Elizabeth has [30, 35, 40] pieces of fruits and vegetables in her meal. Elizabeth is happy to see her colorful and nutritious meal ready to enjoy! 🥗🍎</t>
+Sarah’s neighbor asks her to take care of 3 more pets, and she spends 5 minutes feeding each new pet. Now, Sarah spends [50, 55, 60] minutes in total taking care of all the pets.
+Part 4:
+Sarah enjoys every moment with her furry friends! She feels happy and fulfilled, knowing she is giving them the care and attention they need. Sarah’s pets are grateful and show their love in return, making her day even brighter.</t>
+  </si>
+  <si>
+    <t>Sure, here’s a subtraction story in 4 parts about Juan Pablo, who loves astronomy, and his best friend Mau:
+Part 1:
+Juan Pablo and his best friend Mau love stargazing. One night, they set up their telescope to observe 20 stars. After a while, 5 stars disappear behind some clouds. Juan Pablo counts the remaining stars and realizes they can now see [10, 15, 20] stars.
+Part 2:
+The next night, Juan Pablo and Mau decide to observe planets. They start with 12 planets visible through their telescope. As the night progresses, 4 planets move out of view. Juan Pablo counts again and realizes they can now see [6, 8, 10] planets.
+Part 3:
+Juan Pablo and Mau plan a trip to the planetarium. They have 18 tickets for their friends. However, 7 friends can’t make it. Juan Pablo counts the remaining tickets and realizes they have [9, 11, 13] tickets left.
+Part 4:
+At the planetarium, Juan Pablo and Mau buy 15 souvenirs. They decide to give 6 souvenirs to their family members. Juan Pablo counts the remaining souvenirs and realizes they have [7, 9, 11] souvenirs left. They are excited to share their love for astronomy with their loved ones!</t>
+  </si>
+  <si>
+    <t>Sure, here’s the story about Carola, who loves parties and cakes, divided into 4 parts:
+Part 1:
+Carola is planning a big party for her friends. She decides to bake some cakes. She starts by baking 3 chocolate cakes, and each cake has 8 slices. Carola counts the total number of slices and realizes she has [20, 24, 28] slices of chocolate cake.
+Part 2:
+Carola wants to add more variety to her party. She bakes 2 vanilla cakes, and each cake has 8 slices. She counts the new total and realizes she now has [32, 40, 48] slices of cake in total.
+Part 3:
+Carola’s best friend brings over 3 more cakes, each with 8 slices. Carola counts all the slices and realizes she now has [48, 56, 64] slices of cake to share with her friends.
+Part 4:
+Carola decides to add some cupcakes to the mix. She bakes 4 trays of cupcakes, with each tray having 6 cupcakes. She counts the cupcakes and realizes she has [20, 24, 28] cupcakes in total. Carola combines all the cakes and cupcakes for the party and realizes she has [68, 80, 92] slices and cupcakes in total. Carola is thrilled to see the table filled with delicious treats, ready for her friends to enjoy! 🎂🎉</t>
   </si>
 </sst>
 </file>
@@ -567,8 +642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21CCAF60-17AB-48EF-A621-FD62CE7112F4}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -578,6 +653,7 @@
     <col min="4" max="4" width="45.85546875" customWidth="1"/>
     <col min="5" max="5" width="55.7109375" customWidth="1"/>
     <col min="6" max="6" width="44.5703125" customWidth="1"/>
+    <col min="7" max="7" width="48.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -617,10 +693,13 @@
         <v>13</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
@@ -640,10 +719,13 @@
         <v>15</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="165.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -654,19 +736,19 @@
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="330" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -677,13 +759,16 @@
         <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>23</v>
+      <c r="G5" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
